--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H2">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I2">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J2">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>1549.522064993771</v>
+        <v>1696.566403999193</v>
       </c>
       <c r="R2">
-        <v>1549.522064993771</v>
+        <v>15269.09763599274</v>
       </c>
       <c r="S2">
-        <v>0.3226522480715694</v>
+        <v>0.3307961905277985</v>
       </c>
       <c r="T2">
-        <v>0.3226522480715694</v>
+        <v>0.3307961905277984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H3">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I3">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J3">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>603.1546365560478</v>
+        <v>608.0068410177468</v>
       </c>
       <c r="R3">
-        <v>603.1546365560478</v>
+        <v>5472.061569159721</v>
       </c>
       <c r="S3">
-        <v>0.1255930482154067</v>
+        <v>0.1185490567002923</v>
       </c>
       <c r="T3">
-        <v>0.1255930482154067</v>
+        <v>0.1185490567002923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H4">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I4">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J4">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>825.7238240234997</v>
+        <v>878.1892299137133</v>
       </c>
       <c r="R4">
-        <v>825.7238240234997</v>
+        <v>7903.70306922342</v>
       </c>
       <c r="S4">
-        <v>0.1719379504986308</v>
+        <v>0.1712291668237794</v>
       </c>
       <c r="T4">
-        <v>0.1719379504986308</v>
+        <v>0.1712291668237793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H5">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I5">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J5">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>1107.447168854691</v>
+        <v>1112.53966050158</v>
       </c>
       <c r="R5">
-        <v>1107.447168854691</v>
+        <v>10012.85694451422</v>
       </c>
       <c r="S5">
-        <v>0.2306003423403315</v>
+        <v>0.2169227686210789</v>
       </c>
       <c r="T5">
-        <v>0.2306003423403315</v>
+        <v>0.2169227686210789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H6">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I6">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J6">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>325.2934016935982</v>
+        <v>341.4965602010534</v>
       </c>
       <c r="R6">
-        <v>325.2934016935982</v>
+        <v>3073.469041809481</v>
       </c>
       <c r="S6">
-        <v>0.06773485173940356</v>
+        <v>0.06658493350249625</v>
       </c>
       <c r="T6">
-        <v>0.06773485173940356</v>
+        <v>0.06658493350249622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H7">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I7">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J7">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>273.2988096838131</v>
+        <v>278.9547680227956</v>
       </c>
       <c r="R7">
-        <v>273.2988096838131</v>
+        <v>2510.59291220516</v>
       </c>
       <c r="S7">
-        <v>0.05690817661258719</v>
+        <v>0.05439054691522135</v>
       </c>
       <c r="T7">
-        <v>0.05690817661258719</v>
+        <v>0.05439054691522135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.437985101522309</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H8">
-        <v>0.437985101522309</v>
+        <v>0.490424</v>
       </c>
       <c r="I8">
-        <v>0.02457338252207096</v>
+        <v>0.008997189726622102</v>
       </c>
       <c r="J8">
-        <v>0.02457338252207096</v>
+        <v>0.0089971897266221</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>39.03625116150042</v>
+        <v>15.92568093843467</v>
       </c>
       <c r="R8">
-        <v>39.03625116150042</v>
+        <v>143.331128445912</v>
       </c>
       <c r="S8">
-        <v>0.008128399380743993</v>
+        <v>0.003105186200538407</v>
       </c>
       <c r="T8">
-        <v>0.008128399380743993</v>
+        <v>0.003105186200538406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.437985101522309</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H9">
-        <v>0.437985101522309</v>
+        <v>0.490424</v>
       </c>
       <c r="I9">
-        <v>0.02457338252207096</v>
+        <v>0.008997189726622102</v>
       </c>
       <c r="J9">
-        <v>0.02457338252207096</v>
+        <v>0.0089971897266221</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>15.19494069412947</v>
+        <v>5.707364554437334</v>
       </c>
       <c r="R9">
-        <v>15.19494069412947</v>
+        <v>51.36628098993601</v>
       </c>
       <c r="S9">
-        <v>0.003163996102433531</v>
+        <v>0.001112820841029783</v>
       </c>
       <c r="T9">
-        <v>0.003163996102433531</v>
+        <v>0.001112820841029782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.437985101522309</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H10">
-        <v>0.437985101522309</v>
+        <v>0.490424</v>
       </c>
       <c r="I10">
-        <v>0.02457338252207096</v>
+        <v>0.008997189726622102</v>
       </c>
       <c r="J10">
-        <v>0.02457338252207096</v>
+        <v>0.0089971897266221</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>20.80200296131019</v>
+        <v>8.243568566610668</v>
       </c>
       <c r="R10">
-        <v>20.80200296131019</v>
+        <v>74.192117099496</v>
       </c>
       <c r="S10">
-        <v>0.004331537556959641</v>
+        <v>0.001607329410603376</v>
       </c>
       <c r="T10">
-        <v>0.004331537556959641</v>
+        <v>0.001607329410603376</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.437985101522309</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H11">
-        <v>0.437985101522309</v>
+        <v>0.490424</v>
       </c>
       <c r="I11">
-        <v>0.02457338252207096</v>
+        <v>0.008997189726622102</v>
       </c>
       <c r="J11">
-        <v>0.02457338252207096</v>
+        <v>0.0089971897266221</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>27.8993031516967</v>
+        <v>10.443417730504</v>
       </c>
       <c r="R11">
-        <v>27.8993031516967</v>
+        <v>93.990759574536</v>
       </c>
       <c r="S11">
-        <v>0.005809386703739096</v>
+        <v>0.002036255576674046</v>
       </c>
       <c r="T11">
-        <v>0.005809386703739096</v>
+        <v>0.002036255576674046</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1160,49 +1160,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.437985101522309</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H12">
-        <v>0.437985101522309</v>
+        <v>0.490424</v>
       </c>
       <c r="I12">
-        <v>0.02457338252207096</v>
+        <v>0.008997189726622102</v>
       </c>
       <c r="J12">
-        <v>0.02457338252207096</v>
+        <v>0.0089971897266221</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>8.194936501108289</v>
+        <v>3.205630647002667</v>
       </c>
       <c r="R12">
-        <v>8.194936501108289</v>
+        <v>28.85067582302401</v>
       </c>
       <c r="S12">
-        <v>0.001706406604088584</v>
+        <v>0.0006250332458358338</v>
       </c>
       <c r="T12">
-        <v>0.001706406604088584</v>
+        <v>0.0006250332458358336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1634746666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.490424</v>
+      </c>
+      <c r="I13">
+        <v>0.008997189726622102</v>
+      </c>
+      <c r="J13">
+        <v>0.0089971897266221</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N13">
+        <v>48.054242</v>
+      </c>
+      <c r="O13">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P13">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q13">
+        <v>2.618550397623111</v>
+      </c>
+      <c r="R13">
+        <v>23.566953578608</v>
+      </c>
+      <c r="S13">
+        <v>0.0005105644519406557</v>
+      </c>
+      <c r="T13">
+        <v>0.0005105644519406556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.240755</v>
+      </c>
+      <c r="I14">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J14">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>97.419871</v>
+      </c>
+      <c r="N14">
+        <v>292.259613</v>
+      </c>
+      <c r="O14">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P14">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q14">
+        <v>7.818107014201667</v>
+      </c>
+      <c r="R14">
+        <v>70.36296312781499</v>
+      </c>
+      <c r="S14">
+        <v>0.001524372999100011</v>
+      </c>
+      <c r="T14">
+        <v>0.001524372999100011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.240755</v>
+      </c>
+      <c r="I15">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J15">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>34.912838</v>
+      </c>
+      <c r="N15">
+        <v>104.738514</v>
+      </c>
+      <c r="O15">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P15">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q15">
+        <v>2.801813437563333</v>
+      </c>
+      <c r="R15">
+        <v>25.21632093807</v>
+      </c>
+      <c r="S15">
+        <v>0.0005462970441538857</v>
+      </c>
+      <c r="T15">
+        <v>0.0005462970441538857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.240755</v>
+      </c>
+      <c r="I16">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J16">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>50.427193</v>
+      </c>
+      <c r="N16">
+        <v>151.281579</v>
+      </c>
+      <c r="O16">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P16">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q16">
+        <v>4.046866283571666</v>
+      </c>
+      <c r="R16">
+        <v>36.421796552145</v>
+      </c>
+      <c r="S16">
+        <v>0.0007890572081501226</v>
+      </c>
+      <c r="T16">
+        <v>0.0007890572081501226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.240755</v>
+      </c>
+      <c r="I17">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J17">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>63.884013</v>
+      </c>
+      <c r="N17">
+        <v>191.652039</v>
+      </c>
+      <c r="O17">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P17">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q17">
+        <v>5.126798516605001</v>
+      </c>
+      <c r="R17">
+        <v>46.141186649445</v>
+      </c>
+      <c r="S17">
+        <v>0.0009996221868468101</v>
+      </c>
+      <c r="T17">
+        <v>0.0009996221868468099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.240755</v>
+      </c>
+      <c r="I18">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J18">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>19.609342</v>
+      </c>
+      <c r="N18">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O18">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P18">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q18">
+        <v>1.573682377736667</v>
+      </c>
+      <c r="R18">
+        <v>14.16314139963</v>
+      </c>
+      <c r="S18">
+        <v>0.0003068362867665655</v>
+      </c>
+      <c r="T18">
+        <v>0.0003068362867665655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.240755</v>
+      </c>
+      <c r="I19">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J19">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N19">
+        <v>48.054242</v>
+      </c>
+      <c r="O19">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P19">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q19">
+        <v>1.285477670301111</v>
+      </c>
+      <c r="R19">
+        <v>11.56929903271</v>
+      </c>
+      <c r="S19">
+        <v>0.0002506421884470837</v>
+      </c>
+      <c r="T19">
+        <v>0.0002506421884470837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.532417</v>
+      </c>
+      <c r="I20">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J20">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>97.419871</v>
+      </c>
+      <c r="N20">
+        <v>292.259613</v>
+      </c>
+      <c r="O20">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P20">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q20">
+        <v>49.76262215273567</v>
+      </c>
+      <c r="R20">
+        <v>447.8635993746211</v>
+      </c>
+      <c r="S20">
+        <v>0.009702706478211637</v>
+      </c>
+      <c r="T20">
+        <v>0.009702706478211635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.532417</v>
+      </c>
+      <c r="I21">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J21">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>34.912838</v>
+      </c>
+      <c r="N21">
+        <v>104.738514</v>
+      </c>
+      <c r="O21">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P21">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q21">
+        <v>17.83367548981533</v>
+      </c>
+      <c r="R21">
+        <v>160.503079408338</v>
+      </c>
+      <c r="S21">
+        <v>0.003477206610500987</v>
+      </c>
+      <c r="T21">
+        <v>0.003477206610500987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.437985101522309</v>
-      </c>
-      <c r="H13">
-        <v>0.437985101522309</v>
-      </c>
-      <c r="I13">
-        <v>0.02457338252207096</v>
-      </c>
-      <c r="J13">
-        <v>0.02457338252207096</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="N13">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="O13">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="P13">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="Q13">
-        <v>6.885065542451195</v>
-      </c>
-      <c r="R13">
-        <v>6.885065542451195</v>
-      </c>
-      <c r="S13">
-        <v>0.001433656174106116</v>
-      </c>
-      <c r="T13">
-        <v>0.001433656174106116</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.532417</v>
+      </c>
+      <c r="I22">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J22">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>50.427193</v>
+      </c>
+      <c r="N22">
+        <v>151.281579</v>
+      </c>
+      <c r="O22">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P22">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q22">
+        <v>25.75849593849367</v>
+      </c>
+      <c r="R22">
+        <v>231.826463446443</v>
+      </c>
+      <c r="S22">
+        <v>0.005022386574491855</v>
+      </c>
+      <c r="T22">
+        <v>0.005022386574491855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.532417</v>
+      </c>
+      <c r="I23">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J23">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>63.884013</v>
+      </c>
+      <c r="N23">
+        <v>191.652039</v>
+      </c>
+      <c r="O23">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P23">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q23">
+        <v>32.63231584980701</v>
+      </c>
+      <c r="R23">
+        <v>293.690842648263</v>
+      </c>
+      <c r="S23">
+        <v>0.006362642656232387</v>
+      </c>
+      <c r="T23">
+        <v>0.006362642656232385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.532417</v>
+      </c>
+      <c r="I24">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J24">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>19.609342</v>
+      </c>
+      <c r="N24">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O24">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P24">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q24">
+        <v>10.01656301320467</v>
+      </c>
+      <c r="R24">
+        <v>90.14906711884203</v>
+      </c>
+      <c r="S24">
+        <v>0.001953027526148824</v>
+      </c>
+      <c r="T24">
+        <v>0.001953027526148823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.532417</v>
+      </c>
+      <c r="I25">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J25">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N25">
+        <v>48.054242</v>
+      </c>
+      <c r="O25">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P25">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q25">
+        <v>8.182126373657111</v>
+      </c>
+      <c r="R25">
+        <v>73.63913736291401</v>
+      </c>
+      <c r="S25">
+        <v>0.001595349423661044</v>
+      </c>
+      <c r="T25">
+        <v>0.001595349423661044</v>
       </c>
     </row>
   </sheetData>
